--- a/0702报艾力彼三四级手术占比2019-2020.xlsx
+++ b/0702报艾力彼三四级手术占比2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\converts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A9067-6338-489F-A390-172C124C5123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB8C78-37A9-450C-B749-2A11DBC18CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
   <si>
     <t>注：浅蓝色区域为数据填写区域，学会任职与期刊任职仅填写2020年现况，其他指标则统计2018-2020年度数据。三级科目请根据实际情况填写（可不填）。若要填写三级分科数据，请先填写对应二级科目的数据。例如“外科——骨科——手外科”，若要填报“手外科”，请先填报骨科2018、2019、2020年数据，再填报“手外科”2018、2019、2020年数据。</t>
   </si>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>2020年四级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,13 +602,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -923,7 +930,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:348" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
@@ -1433,7 +1440,7 @@
       <c r="MJ1" s="21"/>
     </row>
     <row r="2" spans="1:348" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1941,7 +1948,7 @@
       <c r="MJ2" s="22"/>
     </row>
     <row r="3" spans="1:348" ht="46" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="9">
@@ -2183,7 +2190,7 @@
       </c>
     </row>
     <row r="4" spans="1:348" ht="46" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>114</v>
       </c>
       <c r="B4" s="12">
@@ -2425,7 +2432,7 @@
       </c>
     </row>
     <row r="5" spans="1:348" ht="46" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="12">
@@ -2667,7 +2674,7 @@
       </c>
     </row>
     <row r="6" spans="1:348" ht="46" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="12">
@@ -2922,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3049,9 +3056,10 @@
       <c r="AK1" s="4">
         <v>37</v>
       </c>
-      <c r="AR1" s="23" t="s">
-        <v>0</v>
-      </c>
+      <c r="AL1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="24"/>
     </row>
     <row r="2" spans="1:44" ht="62" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3165,7 +3173,10 @@
       <c r="AK2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="24"/>
+      <c r="AL2" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR2" s="25"/>
     </row>
     <row r="3" spans="1:44" ht="51" customHeight="1">
       <c r="A3" s="8">
@@ -3279,7 +3290,10 @@
       <c r="AK3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AR3" s="25" t="s">
+      <c r="AL3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3395,7 +3409,10 @@
       <c r="AK4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AR4" s="25" t="s">
+      <c r="AL4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR4" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3511,7 +3528,10 @@
       <c r="AK5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AR5" s="25" t="s">
+      <c r="AL5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR5" s="23" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3627,7 +3647,10 @@
       <c r="AK6" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AR6" s="25" t="s">
+      <c r="AL6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR6" s="23" t="s">
         <v>116</v>
       </c>
     </row>

--- a/0702报艾力彼三四级手术占比2019-2020.xlsx
+++ b/0702报艾力彼三四级手术占比2019-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\converts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DB8C78-37A9-450C-B749-2A11DBC18CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879ADAB-FFAC-417C-B920-7BB9C37F9D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
-  <si>
-    <t>注：浅蓝色区域为数据填写区域，学会任职与期刊任职仅填写2020年现况，其他指标则统计2018-2020年度数据。三级科目请根据实际情况填写（可不填）。若要填写三级分科数据，请先填写对应二级科目的数据。例如“外科——骨科——手外科”，若要填报“手外科”，请先填报骨科2018、2019、2020年数据，再填报“手外科”2018、2019、2020年数据。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>心血管内一科</t>
   </si>
@@ -379,7 +376,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>年度</t>
+    <t>项目名</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -387,7 +384,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +439,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -608,11 +611,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:MJ6"/>
+  <dimension ref="A1:MI6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CB2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -929,246 +932,246 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:348" s="3" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
+    <row r="1" spans="1:347" s="3" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="3">
+        <v>1</v>
       </c>
       <c r="B1" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U1" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V1" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W1" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X1" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z1" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="3">
         <v>26</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AA1" s="15">
         <v>27</v>
       </c>
+      <c r="AB1" s="3">
+        <v>28</v>
+      </c>
       <c r="AC1" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG1" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AH1" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI1" s="3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AJ1" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM1" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN1" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO1" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AP1" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ1" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AR1" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AS1" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AT1" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AU1" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AV1" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AW1" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AX1" s="3">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="3">
         <v>50</v>
       </c>
-      <c r="AZ1" s="15">
+      <c r="AY1" s="15">
         <v>51</v>
       </c>
+      <c r="AZ1" s="3">
+        <v>52</v>
+      </c>
       <c r="BA1" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB1" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BC1" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BD1" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BE1" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BF1" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BG1" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BH1" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BI1" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BJ1" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BK1" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BL1" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BM1" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BN1" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BO1" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BP1" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BQ1" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BR1" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BS1" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BT1" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BU1" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BV1" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BW1" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BX1" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BY1" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BZ1" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CA1" s="3">
-        <v>78</v>
-      </c>
-      <c r="CB1" s="3">
         <v>79</v>
+      </c>
+      <c r="CB1" s="24">
+        <v>80</v>
       </c>
       <c r="CC1" s="18"/>
       <c r="CD1" s="18"/>
@@ -1214,7 +1217,7 @@
       <c r="DR1" s="18"/>
       <c r="DS1" s="18"/>
       <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
+      <c r="DU1" s="19"/>
       <c r="DV1" s="19"/>
       <c r="DW1" s="19"/>
       <c r="DX1" s="19"/>
@@ -1436,11 +1439,12 @@
       <c r="MF1" s="19"/>
       <c r="MG1" s="19"/>
       <c r="MH1" s="19"/>
-      <c r="MI1" s="19"/>
-      <c r="MJ1" s="21"/>
+      <c r="MI1" s="21"/>
     </row>
-    <row r="2" spans="1:348" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:347" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1516,10 +1520,10 @@
       <c r="Z2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AC2" s="3" t="s">
@@ -1540,10 +1544,10 @@
       <c r="AH2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AK2" s="3" t="s">
@@ -1588,10 +1592,10 @@
       <c r="AX2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="BA2" s="3" t="s">
@@ -1612,10 +1616,10 @@
       <c r="BF2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BH2" s="3" t="s">
         <v>59</v>
       </c>
       <c r="BI2" s="3" t="s">
@@ -1648,10 +1652,10 @@
       <c r="BR2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BS2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BT2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="BU2" s="3" t="s">
@@ -1675,8 +1679,8 @@
       <c r="CA2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="3" t="s">
-        <v>79</v>
+      <c r="CB2" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="CC2" s="18"/>
       <c r="CD2" s="18"/>
@@ -1722,7 +1726,7 @@
       <c r="DR2" s="18"/>
       <c r="DS2" s="18"/>
       <c r="DT2" s="18"/>
-      <c r="DU2" s="18"/>
+      <c r="DU2" s="20"/>
       <c r="DV2" s="20"/>
       <c r="DW2" s="20"/>
       <c r="DX2" s="20"/>
@@ -1944,201 +1948,200 @@
       <c r="MF2" s="20"/>
       <c r="MG2" s="20"/>
       <c r="MH2" s="20"/>
-      <c r="MI2" s="20"/>
-      <c r="MJ2" s="22"/>
+      <c r="MI2" s="22"/>
     </row>
-    <row r="3" spans="1:348" ht="46" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="3" spans="1:347" ht="46" customHeight="1">
+      <c r="A3" s="9">
         <v>9.6173599999999998E-2</v>
       </c>
+      <c r="B3" s="12">
+        <v>0.10568269478014899</v>
+      </c>
       <c r="C3" s="12">
-        <v>0.10568269478014899</v>
+        <v>9.0730214254481897E-2</v>
       </c>
       <c r="D3" s="12">
-        <v>9.0730214254481897E-2</v>
+        <v>7.7892967217707998E-2</v>
       </c>
       <c r="E3" s="12">
-        <v>7.7892967217707998E-2</v>
+        <v>0.1029250956807</v>
       </c>
       <c r="F3" s="12">
-        <v>0.1029250956807</v>
+        <v>9.1538842157347894E-2</v>
       </c>
       <c r="G3" s="12">
-        <v>9.1538842157347894E-2</v>
+        <v>0.11340206185567001</v>
       </c>
       <c r="H3" s="12">
-        <v>0.11340206185567001</v>
+        <v>5.4347826086956499E-2</v>
       </c>
       <c r="I3" s="12">
-        <v>5.4347826086956499E-2</v>
+        <v>2.32558139534884E-2</v>
       </c>
       <c r="J3" s="12">
-        <v>2.32558139534884E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="K3" s="12">
-        <v>2.7397260273972601E-2</v>
+        <v>1.5789473684210499E-2</v>
       </c>
       <c r="L3" s="12">
-        <v>1.5789473684210499E-2</v>
+        <v>2.6785714285714302E-2</v>
       </c>
       <c r="M3" s="12">
-        <v>2.6785714285714302E-2</v>
+        <v>3.4246575342465799E-3</v>
       </c>
       <c r="N3" s="12">
-        <v>3.4246575342465799E-3</v>
+        <v>8.9820359281437105E-3</v>
       </c>
       <c r="O3" s="12">
-        <v>8.9820359281437105E-3</v>
+        <v>5.0793650793650801E-2</v>
       </c>
       <c r="P3" s="12">
-        <v>5.0793650793650801E-2</v>
+        <v>3.6764705882352901E-2</v>
       </c>
       <c r="Q3" s="12">
-        <v>3.6764705882352901E-2</v>
-      </c>
-      <c r="R3" s="12">
         <v>7.22513089005236E-2</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>80</v>
+      <c r="R3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0.50381679389313005</v>
       </c>
       <c r="T3" s="12">
-        <v>0.50381679389313005</v>
+        <v>0.29345372460496599</v>
       </c>
       <c r="U3" s="12">
-        <v>0.29345372460496599</v>
+        <v>0.31081081081081102</v>
       </c>
       <c r="V3" s="12">
-        <v>0.31081081081081102</v>
+        <v>0.162162162162162</v>
       </c>
       <c r="W3" s="12">
-        <v>0.162162162162162</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="X3" s="12">
-        <v>0.18333333333333299</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="Y3" s="12">
-        <v>0.27083333333333298</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA3" s="12">
         <v>0.11111111111111099</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AA3" s="8">
         <v>0.1321</v>
       </c>
+      <c r="AB3" s="12">
+        <v>0.16666666666666699</v>
+      </c>
       <c r="AC3" s="12">
-        <v>0.16666666666666699</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" s="12">
-        <v>0.1</v>
+        <v>6.1728395061728399E-2</v>
       </c>
       <c r="AE3" s="12">
-        <v>6.1728395061728399E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AF3" s="12">
-        <v>0.125</v>
+        <v>0.481828400149869</v>
       </c>
       <c r="AG3" s="12">
-        <v>0.481828400149869</v>
+        <v>0.36457097667062099</v>
       </c>
       <c r="AH3" s="12">
-        <v>0.36457097667062099</v>
+        <v>0.52472250252270403</v>
       </c>
       <c r="AI3" s="12">
-        <v>0.52472250252270403</v>
+        <v>0.4375</v>
       </c>
       <c r="AJ3" s="12">
-        <v>0.4375</v>
+        <v>0.173197871311079</v>
       </c>
       <c r="AK3" s="12">
-        <v>0.173197871311079</v>
+        <v>0.494334277620397</v>
       </c>
       <c r="AL3" s="12">
-        <v>0.494334277620397</v>
+        <v>0.54868154158214999</v>
       </c>
       <c r="AM3" s="12">
-        <v>0.54868154158214999</v>
+        <v>0.47333012974531502</v>
       </c>
       <c r="AN3" s="12">
-        <v>0.47333012974531502</v>
+        <v>0.49582753824756598</v>
       </c>
       <c r="AO3" s="12">
-        <v>0.49582753824756598</v>
+        <v>0.43957703927492398</v>
       </c>
       <c r="AP3" s="12">
-        <v>0.43957703927492398</v>
+        <v>0.42324093816631098</v>
       </c>
       <c r="AQ3" s="12">
-        <v>0.42324093816631098</v>
+        <v>0.43708609271523202</v>
       </c>
       <c r="AR3" s="12">
-        <v>0.43708609271523202</v>
+        <v>0.41754385964912299</v>
       </c>
       <c r="AS3" s="12">
-        <v>0.41754385964912299</v>
+        <v>0.35642317380352601</v>
       </c>
       <c r="AT3" s="12">
-        <v>0.35642317380352601</v>
+        <v>0.28130511463844798</v>
       </c>
       <c r="AU3" s="12">
-        <v>0.28130511463844798</v>
+        <v>0.15653495440729501</v>
       </c>
       <c r="AV3" s="12">
-        <v>0.15653495440729501</v>
+        <v>0.55202492211837995</v>
       </c>
       <c r="AW3" s="12">
-        <v>0.55202492211837995</v>
+        <v>0.546104360257327</v>
       </c>
       <c r="AX3" s="12">
-        <v>0.546104360257327</v>
+        <v>9.2896174863387998E-2</v>
       </c>
       <c r="AY3" s="12">
-        <v>9.2896174863387998E-2</v>
+        <v>0.67069767441860495</v>
       </c>
       <c r="AZ3" s="12">
-        <v>0.67069767441860495</v>
+        <v>0.38987341772151901</v>
       </c>
       <c r="BA3" s="12">
-        <v>0.38987341772151901</v>
+        <v>0.37935843793584401</v>
       </c>
       <c r="BB3" s="12">
-        <v>0.37935843793584401</v>
+        <v>0.42295258620689702</v>
       </c>
       <c r="BC3" s="12">
-        <v>0.42295258620689702</v>
+        <v>0.34210526315789502</v>
       </c>
       <c r="BD3" s="12">
-        <v>0.34210526315789502</v>
+        <v>0.35532407407407401</v>
       </c>
       <c r="BE3" s="12">
-        <v>0.35532407407407401</v>
+        <v>0.765944764553944</v>
       </c>
       <c r="BF3" s="12">
-        <v>0.765944764553944</v>
+        <v>0.67824012721971905</v>
       </c>
       <c r="BG3" s="12">
-        <v>0.67824012721971905</v>
+        <v>0.89166666666666705</v>
       </c>
       <c r="BH3" s="12">
-        <v>0.89166666666666705</v>
+        <v>2.0911127707244199E-2</v>
       </c>
       <c r="BI3" s="12">
-        <v>2.0911127707244199E-2</v>
+        <v>6.5928405871748696E-2</v>
       </c>
       <c r="BJ3" s="12">
-        <v>6.5928405871748696E-2</v>
+        <v>3.6664270309130102E-2</v>
       </c>
       <c r="BK3" s="12">
-        <v>3.6664270309130102E-2</v>
+        <v>2.1004566210045698E-2</v>
       </c>
       <c r="BL3" s="12">
-        <v>2.1004566210045698E-2</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="12">
         <v>0</v>
@@ -2153,237 +2156,237 @@
         <v>0</v>
       </c>
       <c r="BQ3" s="12">
+        <v>0.48103792415169699</v>
+      </c>
+      <c r="BR3" s="7">
         <v>0</v>
-      </c>
-      <c r="BR3" s="12">
-        <v>0.48103792415169699</v>
       </c>
       <c r="BS3" s="7">
         <v>0</v>
       </c>
-      <c r="BT3" s="7">
+      <c r="BT3" s="12">
+        <v>0.490574506283663</v>
+      </c>
+      <c r="BU3" s="12">
+        <v>0.61730449251247899</v>
+      </c>
+      <c r="BV3" s="12">
+        <v>0.56587202007528203</v>
+      </c>
+      <c r="BW3" s="12">
+        <v>0.41332752613240398</v>
+      </c>
+      <c r="BX3" s="12">
+        <v>0.36071428571428599</v>
+      </c>
+      <c r="BY3" s="8">
+        <v>8.72E-2</v>
+      </c>
+      <c r="BZ3" s="12">
+        <v>9.9378881987577605E-2</v>
+      </c>
+      <c r="CA3" s="12">
+        <v>0.39333333333333298</v>
+      </c>
+      <c r="CB3" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:347" ht="46" customHeight="1">
+      <c r="A4" s="12">
+        <v>0.11368555060471</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8.4464172479391295E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.11155755140628699</v>
+      </c>
+      <c r="D4" s="12">
+        <v>9.3256814921090406E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.123891594854502</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.105211885046274</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4.5081967213114797E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>3.2448377581120902E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>2.0989505247376299E-2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>2.5089605734767002E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1.13636363636364E-2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1.2861736334405099E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>6.41025641025641E-3</v>
+      </c>
+      <c r="N4" s="12">
+        <v>5.9523809523809503E-3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="P4" s="12">
+        <v>4.81481481481481E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>5.4031587697423097E-2</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.50314465408804998</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0.25219298245614002</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="V4" s="12">
+        <v>0.213235294117647</v>
+      </c>
+      <c r="W4" s="12">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="X4" s="12">
+        <v>0.15454545454545501</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>4.58015267175573E-2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>2.51572327044025E-2</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>1.6949152542372899E-2</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>2.24E-2</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>0.136904761904762</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>0.405204460966543</v>
+      </c>
+      <c r="AG4" s="12">
+        <v>0.29303775545548999</v>
+      </c>
+      <c r="AH4" s="12">
+        <v>0.45545002261420198</v>
+      </c>
+      <c r="AI4" s="12">
+        <v>0.38990825688073399</v>
+      </c>
+      <c r="AJ4" s="12">
+        <v>0.18503456689711301</v>
+      </c>
+      <c r="AK4" s="12">
+        <v>0.488620199146515</v>
+      </c>
+      <c r="AL4" s="12">
+        <v>0.51022395326192804</v>
+      </c>
+      <c r="AM4" s="12">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="AN4" s="12">
+        <v>0.47526881720430098</v>
+      </c>
+      <c r="AO4" s="12">
+        <v>0.44409448818897601</v>
+      </c>
+      <c r="AP4" s="12">
+        <v>0.42213348545350798</v>
+      </c>
+      <c r="AQ4" s="12">
+        <v>0.42872117400419302</v>
+      </c>
+      <c r="AR4" s="12">
+        <v>0.40808970764917901</v>
+      </c>
+      <c r="AS4" s="12">
+        <v>0.37456445993031401</v>
+      </c>
+      <c r="AT4" s="12">
+        <v>0.22880116959064301</v>
+      </c>
+      <c r="AU4" s="12">
+        <v>9.4124358243012005E-2</v>
+      </c>
+      <c r="AV4" s="12">
+        <v>0.42784552845528501</v>
+      </c>
+      <c r="AW4" s="12">
+        <v>0.46172688303735498</v>
+      </c>
+      <c r="AX4" s="12">
+        <v>9.01033973412112E-2</v>
+      </c>
+      <c r="AY4" s="12">
+        <v>0.57528957528957503</v>
+      </c>
+      <c r="AZ4" s="12">
+        <v>0.31901840490797501</v>
+      </c>
+      <c r="BA4" s="12">
+        <v>0.30716253443526198</v>
+      </c>
+      <c r="BB4" s="12">
+        <v>0.35031234983181198</v>
+      </c>
+      <c r="BC4" s="12">
+        <v>0.30687397708674302</v>
+      </c>
+      <c r="BD4" s="12">
+        <v>0.36703296703296701</v>
+      </c>
+      <c r="BE4" s="12">
+        <v>0.70461625601812505</v>
+      </c>
+      <c r="BF4" s="12">
+        <v>0.64988136040073796</v>
+      </c>
+      <c r="BG4" s="12">
+        <v>0.61589229144667401</v>
+      </c>
+      <c r="BH4" s="12">
+        <v>2.1390374331550801E-2</v>
+      </c>
+      <c r="BI4" s="12">
+        <v>7.3216286888307794E-2</v>
+      </c>
+      <c r="BJ4" s="12">
+        <v>6.4907275320970001E-2</v>
+      </c>
+      <c r="BK4" s="12">
+        <v>1.9004524886877799E-2</v>
+      </c>
+      <c r="BL4" s="12">
+        <v>9.2592592592592605E-3</v>
+      </c>
+      <c r="BM4" s="12">
         <v>0</v>
-      </c>
-      <c r="BU3" s="12">
-        <v>0.490574506283663</v>
-      </c>
-      <c r="BV3" s="12">
-        <v>0.61730449251247899</v>
-      </c>
-      <c r="BW3" s="12">
-        <v>0.56587202007528203</v>
-      </c>
-      <c r="BX3" s="12">
-        <v>0.41332752613240398</v>
-      </c>
-      <c r="BY3" s="12">
-        <v>0.36071428571428599</v>
-      </c>
-      <c r="BZ3" s="8">
-        <v>8.72E-2</v>
-      </c>
-      <c r="CA3" s="12">
-        <v>9.9378881987577605E-2</v>
-      </c>
-      <c r="CB3" s="12">
-        <v>0.39333333333333298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:348" ht="46" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.11368555060471</v>
-      </c>
-      <c r="C4" s="12">
-        <v>8.4464172479391295E-2</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.11155755140628699</v>
-      </c>
-      <c r="E4" s="12">
-        <v>9.3256814921090406E-2</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.123891594854502</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.105211885046274</v>
-      </c>
-      <c r="H4" s="12">
-        <v>4.5081967213114797E-2</v>
-      </c>
-      <c r="I4" s="12">
-        <v>3.2448377581120902E-2</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2.0989505247376299E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>2.5089605734767002E-2</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1.13636363636364E-2</v>
-      </c>
-      <c r="M4" s="12">
-        <v>1.2861736334405099E-2</v>
-      </c>
-      <c r="N4" s="12">
-        <v>6.41025641025641E-3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>5.9523809523809503E-3</v>
-      </c>
-      <c r="P4" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>4.81481481481481E-2</v>
-      </c>
-      <c r="R4" s="12">
-        <v>5.4031587697423097E-2</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="12">
-        <v>0.50314465408804998</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0.25219298245614002</v>
-      </c>
-      <c r="V4" s="12">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="W4" s="12">
-        <v>0.213235294117647</v>
-      </c>
-      <c r="X4" s="12">
-        <v>0.214285714285714</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>0.15454545454545501</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>4.58015267175573E-2</v>
-      </c>
-      <c r="AA4" s="12">
-        <v>2.51572327044025E-2</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC4" s="12">
-        <v>0.25925925925925902</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1.6949152542372899E-2</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>2.24E-2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>0.136904761904762</v>
-      </c>
-      <c r="AG4" s="12">
-        <v>0.405204460966543</v>
-      </c>
-      <c r="AH4" s="12">
-        <v>0.29303775545548999</v>
-      </c>
-      <c r="AI4" s="12">
-        <v>0.45545002261420198</v>
-      </c>
-      <c r="AJ4" s="12">
-        <v>0.38990825688073399</v>
-      </c>
-      <c r="AK4" s="12">
-        <v>0.18503456689711301</v>
-      </c>
-      <c r="AL4" s="12">
-        <v>0.488620199146515</v>
-      </c>
-      <c r="AM4" s="12">
-        <v>0.51022395326192804</v>
-      </c>
-      <c r="AN4" s="12">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="AO4" s="12">
-        <v>0.47526881720430098</v>
-      </c>
-      <c r="AP4" s="12">
-        <v>0.44409448818897601</v>
-      </c>
-      <c r="AQ4" s="12">
-        <v>0.42213348545350798</v>
-      </c>
-      <c r="AR4" s="12">
-        <v>0.42872117400419302</v>
-      </c>
-      <c r="AS4" s="12">
-        <v>0.40808970764917901</v>
-      </c>
-      <c r="AT4" s="12">
-        <v>0.37456445993031401</v>
-      </c>
-      <c r="AU4" s="12">
-        <v>0.22880116959064301</v>
-      </c>
-      <c r="AV4" s="12">
-        <v>9.4124358243012005E-2</v>
-      </c>
-      <c r="AW4" s="12">
-        <v>0.42784552845528501</v>
-      </c>
-      <c r="AX4" s="12">
-        <v>0.46172688303735498</v>
-      </c>
-      <c r="AY4" s="12">
-        <v>9.01033973412112E-2</v>
-      </c>
-      <c r="AZ4" s="12">
-        <v>0.57528957528957503</v>
-      </c>
-      <c r="BA4" s="12">
-        <v>0.31901840490797501</v>
-      </c>
-      <c r="BB4" s="12">
-        <v>0.30716253443526198</v>
-      </c>
-      <c r="BC4" s="12">
-        <v>0.35031234983181198</v>
-      </c>
-      <c r="BD4" s="12">
-        <v>0.30687397708674302</v>
-      </c>
-      <c r="BE4" s="12">
-        <v>0.36703296703296701</v>
-      </c>
-      <c r="BF4" s="12">
-        <v>0.70461625601812505</v>
-      </c>
-      <c r="BG4" s="12">
-        <v>0.64988136040073796</v>
-      </c>
-      <c r="BH4" s="12">
-        <v>0.61589229144667401</v>
-      </c>
-      <c r="BI4" s="12">
-        <v>2.1390374331550801E-2</v>
-      </c>
-      <c r="BJ4" s="12">
-        <v>7.3216286888307794E-2</v>
-      </c>
-      <c r="BK4" s="12">
-        <v>6.4907275320970001E-2</v>
-      </c>
-      <c r="BL4" s="12">
-        <v>1.9004524886877799E-2</v>
-      </c>
-      <c r="BM4" s="12">
-        <v>9.2592592592592605E-3</v>
       </c>
       <c r="BN4" s="12">
         <v>0</v>
@@ -2395,231 +2398,231 @@
         <v>0</v>
       </c>
       <c r="BQ4" s="12">
+        <v>0.39188034188034199</v>
+      </c>
+      <c r="BR4" s="12">
+        <v>8.3333333333333297E-3</v>
+      </c>
+      <c r="BS4" s="12">
+        <v>0.13793103448275901</v>
+      </c>
+      <c r="BT4" s="12">
+        <v>0.51322233104799198</v>
+      </c>
+      <c r="BU4" s="17">
+        <v>0.67440735365263704</v>
+      </c>
+      <c r="BV4" s="17">
+        <v>0.64676616915422902</v>
+      </c>
+      <c r="BW4" s="17">
+        <v>0.44971728594507299</v>
+      </c>
+      <c r="BX4" s="17">
+        <v>0.49503897944720099</v>
+      </c>
+      <c r="BY4" s="17">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="BZ4" s="17">
+        <v>0.14440433212996401</v>
+      </c>
+      <c r="CA4" s="17">
+        <v>0.19428571428571401</v>
+      </c>
+      <c r="CB4" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:347" ht="46" customHeight="1">
+      <c r="A5" s="12">
+        <v>0.222650231124807</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.23965029570583701</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.22168780061215601</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.22779490053236201</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.237971569163477</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.20831271647699201</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.164948453608247</v>
+      </c>
+      <c r="H5" s="12">
+        <v>6.5217391304347797E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4.5736434108527103E-2</v>
+      </c>
+      <c r="J5" s="12">
+        <v>2.8538812785388099E-2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.38947368421052603</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.13839285714285701</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.24657534246575299</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.119760479041916</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.20952380952381</v>
+      </c>
+      <c r="P5" s="12">
+        <v>0.24264705882352899</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>0.32251308900523601</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0.122137404580153</v>
+      </c>
+      <c r="T5" s="12">
+        <v>4.2889390519187401E-2</v>
+      </c>
+      <c r="U5" s="12">
+        <v>0.17567567567567599</v>
+      </c>
+      <c r="V5" s="12">
+        <v>8.1081081081081099E-2</v>
+      </c>
+      <c r="W5" s="12">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0.1875</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>5.67E-2</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>0.234567901234568</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>0.16346153846153799</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>0.23079805170475801</v>
+      </c>
+      <c r="AG5" s="12">
+        <v>0.176749703440095</v>
+      </c>
+      <c r="AH5" s="12">
+        <v>0.101917255297679</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>0.116477272727273</v>
+      </c>
+      <c r="AJ5" s="12">
+        <v>0.130624092888244</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>8.6402266288951798E-2</v>
+      </c>
+      <c r="AL5" s="12">
+        <v>4.4117647058823498E-2</v>
+      </c>
+      <c r="AM5" s="12">
+        <v>5.2378664103796303E-2</v>
+      </c>
+      <c r="AN5" s="12">
+        <v>8.7621696801112703E-2</v>
+      </c>
+      <c r="AO5" s="12">
+        <v>0.26057401812688802</v>
+      </c>
+      <c r="AP5" s="12">
+        <v>0.23400852878464801</v>
+      </c>
+      <c r="AQ5" s="12">
+        <v>0.229895931882687</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>0.21315789473684199</v>
+      </c>
+      <c r="AS5" s="12">
+        <v>0.52644836272040296</v>
+      </c>
+      <c r="AT5" s="12">
+        <v>0.41622574955908298</v>
+      </c>
+      <c r="AU5" s="12">
+        <v>0.737082066869301</v>
+      </c>
+      <c r="AV5" s="12">
+        <v>0.105919003115265</v>
+      </c>
+      <c r="AW5" s="12">
+        <v>0.13581129378127199</v>
+      </c>
+      <c r="AX5" s="12">
+        <v>9.1074681238615708E-3</v>
+      </c>
+      <c r="AY5" s="12">
+        <v>3.5348837209302299E-2</v>
+      </c>
+      <c r="AZ5" s="12">
+        <v>0.117721518987342</v>
+      </c>
+      <c r="BA5" s="12">
+        <v>0.15341701534170199</v>
+      </c>
+      <c r="BB5" s="12">
+        <v>0.14278017241379301</v>
+      </c>
+      <c r="BC5" s="12">
+        <v>0.18784029038112501</v>
+      </c>
+      <c r="BD5" s="12">
+        <v>8.5648148148148195E-2</v>
+      </c>
+      <c r="BE5" s="12">
+        <v>9.4575799721835899E-2</v>
+      </c>
+      <c r="BF5" s="12">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="BG5" s="12">
+        <v>5.83333333333333E-2</v>
+      </c>
+      <c r="BH5" s="12">
+        <v>7.4682598954443598E-4</v>
+      </c>
+      <c r="BI5" s="12">
+        <v>2.5753283543651802E-4</v>
+      </c>
+      <c r="BJ5" s="12">
+        <v>4.3134435657800098E-3</v>
+      </c>
+      <c r="BK5" s="12">
         <v>0</v>
-      </c>
-      <c r="BR4" s="12">
-        <v>0.39188034188034199</v>
-      </c>
-      <c r="BS4" s="12">
-        <v>8.3333333333333297E-3</v>
-      </c>
-      <c r="BT4" s="12">
-        <v>0.13793103448275901</v>
-      </c>
-      <c r="BU4" s="12">
-        <v>0.51322233104799198</v>
-      </c>
-      <c r="BV4" s="17">
-        <v>0.67440735365263704</v>
-      </c>
-      <c r="BW4" s="17">
-        <v>0.64676616915422902</v>
-      </c>
-      <c r="BX4" s="17">
-        <v>0.44971728594507299</v>
-      </c>
-      <c r="BY4" s="17">
-        <v>0.49503897944720099</v>
-      </c>
-      <c r="BZ4" s="17">
-        <v>8.2699999999999996E-2</v>
-      </c>
-      <c r="CA4" s="17">
-        <v>0.14440433212996401</v>
-      </c>
-      <c r="CB4" s="17">
-        <v>0.19428571428571401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:348" ht="46" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.222650231124807</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.23965029570583701</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.22168780061215601</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.22779490053236201</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.237971569163477</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.20831271647699201</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.164948453608247</v>
-      </c>
-      <c r="I5" s="12">
-        <v>6.5217391304347797E-2</v>
-      </c>
-      <c r="J5" s="12">
-        <v>4.5736434108527103E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <v>2.8538812785388099E-2</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.38947368421052603</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0.13839285714285701</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0.24657534246575299</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0.119760479041916</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0.20952380952381</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>0.24264705882352899</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0.32251308900523601</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="12">
-        <v>0.122137404580153</v>
-      </c>
-      <c r="U5" s="12">
-        <v>4.2889390519187401E-2</v>
-      </c>
-      <c r="V5" s="12">
-        <v>0.17567567567567599</v>
-      </c>
-      <c r="W5" s="12">
-        <v>8.1081081081081099E-2</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>0.1875</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>5.67E-2</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>0.234567901234568</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>0.16346153846153799</v>
-      </c>
-      <c r="AG5" s="12">
-        <v>0.23079805170475801</v>
-      </c>
-      <c r="AH5" s="12">
-        <v>0.176749703440095</v>
-      </c>
-      <c r="AI5" s="12">
-        <v>0.101917255297679</v>
-      </c>
-      <c r="AJ5" s="12">
-        <v>0.116477272727273</v>
-      </c>
-      <c r="AK5" s="12">
-        <v>0.130624092888244</v>
-      </c>
-      <c r="AL5" s="12">
-        <v>8.6402266288951798E-2</v>
-      </c>
-      <c r="AM5" s="12">
-        <v>4.4117647058823498E-2</v>
-      </c>
-      <c r="AN5" s="12">
-        <v>5.2378664103796303E-2</v>
-      </c>
-      <c r="AO5" s="12">
-        <v>8.7621696801112703E-2</v>
-      </c>
-      <c r="AP5" s="12">
-        <v>0.26057401812688802</v>
-      </c>
-      <c r="AQ5" s="12">
-        <v>0.23400852878464801</v>
-      </c>
-      <c r="AR5" s="12">
-        <v>0.229895931882687</v>
-      </c>
-      <c r="AS5" s="12">
-        <v>0.21315789473684199</v>
-      </c>
-      <c r="AT5" s="12">
-        <v>0.52644836272040296</v>
-      </c>
-      <c r="AU5" s="12">
-        <v>0.41622574955908298</v>
-      </c>
-      <c r="AV5" s="12">
-        <v>0.737082066869301</v>
-      </c>
-      <c r="AW5" s="12">
-        <v>0.105919003115265</v>
-      </c>
-      <c r="AX5" s="12">
-        <v>0.13581129378127199</v>
-      </c>
-      <c r="AY5" s="12">
-        <v>9.1074681238615708E-3</v>
-      </c>
-      <c r="AZ5" s="12">
-        <v>3.5348837209302299E-2</v>
-      </c>
-      <c r="BA5" s="12">
-        <v>0.117721518987342</v>
-      </c>
-      <c r="BB5" s="12">
-        <v>0.15341701534170199</v>
-      </c>
-      <c r="BC5" s="12">
-        <v>0.14278017241379301</v>
-      </c>
-      <c r="BD5" s="12">
-        <v>0.18784029038112501</v>
-      </c>
-      <c r="BE5" s="12">
-        <v>8.5648148148148195E-2</v>
-      </c>
-      <c r="BF5" s="12">
-        <v>9.4575799721835899E-2</v>
-      </c>
-      <c r="BG5" s="12">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="BH5" s="12">
-        <v>5.83333333333333E-2</v>
-      </c>
-      <c r="BI5" s="12">
-        <v>7.4682598954443598E-4</v>
-      </c>
-      <c r="BJ5" s="12">
-        <v>2.5753283543651802E-4</v>
-      </c>
-      <c r="BK5" s="12">
-        <v>4.3134435657800098E-3</v>
       </c>
       <c r="BL5" s="12">
         <v>0</v>
@@ -2637,234 +2640,234 @@
         <v>0</v>
       </c>
       <c r="BQ5" s="12">
+        <v>1.6467065868263499E-2</v>
+      </c>
+      <c r="BR5" s="7">
         <v>0</v>
-      </c>
-      <c r="BR5" s="12">
-        <v>1.6467065868263499E-2</v>
       </c>
       <c r="BS5" s="7">
         <v>0</v>
       </c>
-      <c r="BT5" s="7">
+      <c r="BT5" s="12">
+        <v>4.8473967684021499E-2</v>
+      </c>
+      <c r="BU5" s="17">
+        <v>5.1026067665002797E-2</v>
+      </c>
+      <c r="BV5" s="17">
+        <v>8.7829360100376407E-3</v>
+      </c>
+      <c r="BW5" s="17">
+        <v>0.15069686411149799</v>
+      </c>
+      <c r="BX5" s="17">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="BY5" s="17">
+        <v>4.53E-2</v>
+      </c>
+      <c r="BZ5" s="17">
+        <v>6.2111800000000002E-2</v>
+      </c>
+      <c r="CA5" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="CB5" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:347" ht="46" customHeight="1">
+      <c r="A6" s="12">
+        <v>0.20534691279439801</v>
+      </c>
+      <c r="B6" s="12">
+        <v>0.27545973367152798</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.202079886551643</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.22094691535150601</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.21468714874484801</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.18363370677058</v>
+      </c>
+      <c r="G6" s="12">
+        <v>7.3770491803278701E-2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4.71976401179941E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5.2473763118440798E-2</v>
+      </c>
+      <c r="J6" s="12">
+        <v>2.68817204301075E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.35227272727272702</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.157556270096463</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0.246794871794872</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.21230158730158699</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0.311428571428571</v>
+      </c>
+      <c r="P6" s="12">
+        <v>0.344444444444444</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0.42061512884455499</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0.12578616352201299</v>
+      </c>
+      <c r="T6" s="12">
+        <v>5.7017543859649099E-2</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="V6" s="12">
+        <v>0.110294117647059</v>
+      </c>
+      <c r="W6" s="12">
+        <v>0.17857142857142899</v>
+      </c>
+      <c r="X6" s="12">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="Y6" s="12">
+        <v>2.2900763358778602E-2</v>
+      </c>
+      <c r="Z6" s="12">
+        <v>5.0314465408804999E-2</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0.2273</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>7.4074074074074098E-2</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>0.13559322033898299</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>0.160714285714286</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>0.22230483271375501</v>
+      </c>
+      <c r="AG6" s="12">
+        <v>0.192933841357811</v>
+      </c>
+      <c r="AH6" s="12">
+        <v>0.15920398009950201</v>
+      </c>
+      <c r="AI6" s="12">
+        <v>0.16788990825688099</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0.17405449369662501</v>
+      </c>
+      <c r="AK6" s="12">
+        <v>8.9615931721194905E-2</v>
+      </c>
+      <c r="AL6" s="12">
+        <v>5.9883154819863699E-2</v>
+      </c>
+      <c r="AM6" s="12">
+        <v>7.5803212851405594E-2</v>
+      </c>
+      <c r="AN6" s="12">
+        <v>7.1684587813620096E-2</v>
+      </c>
+      <c r="AO6" s="12">
+        <v>0.31464566929133903</v>
+      </c>
+      <c r="AP6" s="12">
+        <v>0.27267541357672598</v>
+      </c>
+      <c r="AQ6" s="12">
+        <v>0.29454926624737898</v>
+      </c>
+      <c r="AR6" s="12">
+        <v>0.254705646776131</v>
+      </c>
+      <c r="AS6" s="12">
+        <v>0.52874564459930296</v>
+      </c>
+      <c r="AT6" s="12">
+        <v>0.51608187134502903</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>0.79977181973759304</v>
+      </c>
+      <c r="AV6" s="12">
+        <v>0.17733739837398399</v>
+      </c>
+      <c r="AW6" s="12">
+        <v>0.19044703000612401</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>1.18168389955687E-2</v>
+      </c>
+      <c r="AY6" s="12">
+        <v>6.7181467181467197E-2</v>
+      </c>
+      <c r="AZ6" s="12">
+        <v>0.21840490797546</v>
+      </c>
+      <c r="BA6" s="12">
+        <v>0.230027548209366</v>
+      </c>
+      <c r="BB6" s="12">
+        <v>0.188370975492552</v>
+      </c>
+      <c r="BC6" s="12">
+        <v>0.19230769230769201</v>
+      </c>
+      <c r="BD6" s="12">
+        <v>0.128571428571429</v>
+      </c>
+      <c r="BE6" s="12">
+        <v>0.134239592183517</v>
+      </c>
+      <c r="BF6" s="12">
+        <v>0.178486686000527</v>
+      </c>
+      <c r="BG6" s="12">
+        <v>0.230464625131996</v>
+      </c>
+      <c r="BH6" s="12">
         <v>0</v>
       </c>
-      <c r="BU5" s="12">
-        <v>4.8473967684021499E-2</v>
-      </c>
-      <c r="BV5" s="17">
-        <v>5.1026067665002797E-2</v>
-      </c>
-      <c r="BW5" s="17">
-        <v>8.7829360100376407E-3</v>
-      </c>
-      <c r="BX5" s="17">
-        <v>0.15069686411149799</v>
-      </c>
-      <c r="BY5" s="17">
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="BZ5" s="17">
-        <v>4.53E-2</v>
-      </c>
-      <c r="CA5" s="17">
-        <v>6.2111800000000002E-2</v>
-      </c>
-      <c r="CB5" s="17">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:348" ht="46" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.20534691279439801</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.27545973367152798</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.202079886551643</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.22094691535150601</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.21468714874484801</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.18363370677058</v>
-      </c>
-      <c r="H6" s="12">
-        <v>7.3770491803278701E-2</v>
-      </c>
-      <c r="I6" s="12">
-        <v>4.71976401179941E-2</v>
-      </c>
-      <c r="J6" s="12">
-        <v>5.2473763118440798E-2</v>
-      </c>
-      <c r="K6" s="12">
-        <v>2.68817204301075E-2</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0.35227272727272702</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0.157556270096463</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0.246794871794872</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0.21230158730158699</v>
-      </c>
-      <c r="P6" s="12">
-        <v>0.311428571428571</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>0.344444444444444</v>
-      </c>
-      <c r="R6" s="12">
-        <v>0.42061512884455499</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" s="12">
-        <v>0.12578616352201299</v>
-      </c>
-      <c r="U6" s="12">
-        <v>5.7017543859649099E-2</v>
-      </c>
-      <c r="V6" s="12">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="W6" s="12">
-        <v>0.110294117647059</v>
-      </c>
-      <c r="X6" s="12">
-        <v>0.17857142857142899</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>0.18181818181818199</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>2.2900763358778602E-2</v>
-      </c>
-      <c r="AA6" s="12">
-        <v>5.0314465408804999E-2</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>0.2273</v>
-      </c>
-      <c r="AC6" s="12">
-        <v>7.4074074074074098E-2</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>0.13559322033898299</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>0.15670000000000001</v>
-      </c>
-      <c r="AF6" s="12">
-        <v>0.160714285714286</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0.22230483271375501</v>
-      </c>
-      <c r="AH6" s="12">
-        <v>0.192933841357811</v>
-      </c>
-      <c r="AI6" s="12">
-        <v>0.15920398009950201</v>
-      </c>
-      <c r="AJ6" s="12">
-        <v>0.16788990825688099</v>
-      </c>
-      <c r="AK6" s="12">
-        <v>0.17405449369662501</v>
-      </c>
-      <c r="AL6" s="12">
-        <v>8.9615931721194905E-2</v>
-      </c>
-      <c r="AM6" s="12">
-        <v>5.9883154819863699E-2</v>
-      </c>
-      <c r="AN6" s="12">
-        <v>7.5803212851405594E-2</v>
-      </c>
-      <c r="AO6" s="12">
-        <v>7.1684587813620096E-2</v>
-      </c>
-      <c r="AP6" s="12">
-        <v>0.31464566929133903</v>
-      </c>
-      <c r="AQ6" s="12">
-        <v>0.27267541357672598</v>
-      </c>
-      <c r="AR6" s="12">
-        <v>0.29454926624737898</v>
-      </c>
-      <c r="AS6" s="12">
-        <v>0.254705646776131</v>
-      </c>
-      <c r="AT6" s="12">
-        <v>0.52874564459930296</v>
-      </c>
-      <c r="AU6" s="12">
-        <v>0.51608187134502903</v>
-      </c>
-      <c r="AV6" s="12">
-        <v>0.79977181973759304</v>
-      </c>
-      <c r="AW6" s="12">
-        <v>0.17733739837398399</v>
-      </c>
-      <c r="AX6" s="12">
-        <v>0.19044703000612401</v>
-      </c>
-      <c r="AY6" s="12">
-        <v>1.18168389955687E-2</v>
-      </c>
-      <c r="AZ6" s="12">
-        <v>6.7181467181467197E-2</v>
-      </c>
-      <c r="BA6" s="12">
-        <v>0.21840490797546</v>
-      </c>
-      <c r="BB6" s="12">
-        <v>0.230027548209366</v>
-      </c>
-      <c r="BC6" s="12">
-        <v>0.188370975492552</v>
-      </c>
-      <c r="BD6" s="12">
-        <v>0.19230769230769201</v>
-      </c>
-      <c r="BE6" s="12">
-        <v>0.128571428571429</v>
-      </c>
-      <c r="BF6" s="12">
-        <v>0.134239592183517</v>
-      </c>
-      <c r="BG6" s="12">
-        <v>0.178486686000527</v>
-      </c>
-      <c r="BH6" s="12">
-        <v>0.230464625131996</v>
-      </c>
       <c r="BI6" s="12">
+        <v>3.7355248412401901E-4</v>
+      </c>
+      <c r="BJ6" s="12">
+        <v>7.8459343794579205E-3</v>
+      </c>
+      <c r="BK6" s="12">
+        <v>1.8099547511312201E-3</v>
+      </c>
+      <c r="BL6" s="12">
         <v>0</v>
-      </c>
-      <c r="BJ6" s="12">
-        <v>3.7355248412401901E-4</v>
-      </c>
-      <c r="BK6" s="12">
-        <v>7.8459343794579205E-3</v>
-      </c>
-      <c r="BL6" s="12">
-        <v>1.8099547511312201E-3</v>
       </c>
       <c r="BM6" s="12">
         <v>0</v>
@@ -2879,46 +2882,43 @@
         <v>0</v>
       </c>
       <c r="BQ6" s="12">
+        <v>5.7264957264957297E-2</v>
+      </c>
+      <c r="BR6" s="12">
         <v>0</v>
-      </c>
-      <c r="BR6" s="12">
-        <v>5.7264957264957297E-2</v>
       </c>
       <c r="BS6" s="12">
         <v>0</v>
       </c>
       <c r="BT6" s="12">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="12">
         <v>7.4436826640548501E-2</v>
       </c>
+      <c r="BU6" s="17">
+        <v>6.0474117077890702E-2</v>
+      </c>
       <c r="BV6" s="17">
-        <v>6.0474117077890702E-2</v>
+        <v>1.2437810945273599E-3</v>
       </c>
       <c r="BW6" s="17">
-        <v>1.2437810945273599E-3</v>
+        <v>0.14277059773828801</v>
       </c>
       <c r="BX6" s="17">
-        <v>0.14277059773828801</v>
-      </c>
-      <c r="BY6" s="17">
         <v>0.12508858965272901</v>
       </c>
-      <c r="BZ6" s="17" t="s">
-        <v>82</v>
+      <c r="BY6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="BZ6" s="17">
+        <v>6.1371841155234703E-2</v>
       </c>
       <c r="CA6" s="17">
-        <v>6.1371841155234703E-2</v>
-      </c>
-      <c r="CB6" s="17">
         <v>0.17714285714285699</v>
+      </c>
+      <c r="CB6" s="23" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2927,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL3" sqref="AL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2939,12 +2939,10 @@
     <col min="2" max="3" width="12.36328125" style="1" customWidth="1"/>
     <col min="4" max="29" width="9" style="1"/>
     <col min="30" max="30" width="11.453125" style="1" customWidth="1"/>
-    <col min="31" max="43" width="9" style="1"/>
-    <col min="44" max="44" width="20.453125" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="22" customHeight="1">
+    <row r="1" spans="1:38" ht="22" customHeight="1">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -3059,126 +3057,124 @@
       <c r="AL1" s="1">
         <v>38</v>
       </c>
-      <c r="AR1" s="24"/>
     </row>
-    <row r="2" spans="1:44" ht="62" customHeight="1">
+    <row r="2" spans="1:38" ht="62" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AK2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL2" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR2" s="25"/>
+      <c r="AL2" s="25" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" ht="51" customHeight="1">
+    <row r="3" spans="1:38" ht="51" customHeight="1">
       <c r="A3" s="8">
         <v>9.69E-2</v>
       </c>
@@ -3258,7 +3254,7 @@
         <v>0.125</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="12">
         <v>0.28130511463844798</v>
@@ -3276,28 +3272,25 @@
         <v>0.41332752613240398</v>
       </c>
       <c r="AG3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="23" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="4" spans="1:44" ht="51" customHeight="1">
+    <row r="4" spans="1:38" ht="51" customHeight="1">
       <c r="A4" s="9">
         <v>0.106070791804285</v>
       </c>
@@ -3377,7 +3370,7 @@
         <v>0.136904761904762</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB4" s="12">
         <v>0.22880116959064301</v>
@@ -3395,28 +3388,25 @@
         <v>0.44971728594507299</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR4" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="51" customHeight="1">
+    <row r="5" spans="1:38" ht="51" customHeight="1">
       <c r="A5" s="8">
         <v>0.2296</v>
       </c>
@@ -3496,7 +3486,7 @@
         <v>0.16346153846153799</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB5" s="12">
         <v>0.41622574955908298</v>
@@ -3514,28 +3504,25 @@
         <v>0.15069686411149799</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK5" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AR5" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="51" customHeight="1">
+    <row r="6" spans="1:38" ht="51" customHeight="1">
       <c r="A6" s="9">
         <v>0.223891503229766</v>
       </c>
@@ -3615,7 +3602,7 @@
         <v>0.160714285714286</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB6" s="12">
         <v>0.51608187134502903</v>
@@ -3633,31 +3620,25 @@
         <v>0.14277059773828801</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AK6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL6" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR6" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AR1:AR2"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
